--- a/public/import/user_template (1).xlsx
+++ b/public/import/user_template (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apriansyahrs/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3E8C99-6C2B-4447-A9F1-54C2CC583BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFEF88B-8E1A-184A-872E-D1EE58384D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -60,42 +62,48 @@
     <t>password</t>
   </si>
   <si>
-    <t>IDRIS MAULANA ANDRIANSYAH</t>
-  </si>
-  <si>
-    <t>idrismaulana</t>
-  </si>
-  <si>
-    <t>ASC</t>
+    <t xml:space="preserve">Irwan Supriatna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">irwansupriatna </t>
+  </si>
+  <si>
+    <t>DSF/DM</t>
   </si>
   <si>
     <t>CV.TOP</t>
   </si>
   <si>
-    <t>REALME</t>
-  </si>
-  <si>
-    <t>BIGBANDUNG</t>
-  </si>
-  <si>
-    <t>BDG1</t>
-  </si>
-  <si>
-    <t>idris123</t>
-  </si>
-  <si>
-    <t>ANDIWIRA</t>
+    <t>ORAIMO</t>
+  </si>
+  <si>
+    <t>JABAR2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ADI SUHADI</t>
+  </si>
+  <si>
+    <t>complete123</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,8 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,12 +436,16 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,11 +474,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
@@ -484,14 +497,15 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/public/import/user_template (1).xlsx
+++ b/public/import/user_template (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apriansyahrs/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFEF88B-8E1A-184A-872E-D1EE58384D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60C33F3-E2CB-AF40-B934-9DFC56D24B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,12 +62,6 @@
     <t>password</t>
   </si>
   <si>
-    <t xml:space="preserve">Irwan Supriatna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">irwansupriatna </t>
-  </si>
-  <si>
     <t>DSF/DM</t>
   </si>
   <si>
@@ -77,16 +71,22 @@
     <t>ORAIMO</t>
   </si>
   <si>
-    <t>JABAR2</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>ADI SUHADI</t>
   </si>
   <si>
     <t>complete123</t>
+  </si>
+  <si>
+    <t>NANDA PRATAMA</t>
+  </si>
+  <si>
+    <t>nandapratama</t>
+  </si>
+  <si>
+    <t>TANGERANGBANTEN</t>
+  </si>
+  <si>
+    <t>TANGERANGKABUPATEN</t>
   </si>
 </sst>
 </file>
@@ -436,13 +436,19 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -476,31 +482,31 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/public/import/user_template (1).xlsx
+++ b/public/import/user_template (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apriansyahrs/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60C33F3-E2CB-AF40-B934-9DFC56D24B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFD84BA-53DB-0441-A30C-4AE62F87EFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,28 +65,28 @@
     <t>DSF/DM</t>
   </si>
   <si>
-    <t>CV.TOP</t>
-  </si>
-  <si>
-    <t>ORAIMO</t>
-  </si>
-  <si>
     <t>ADI SUHADI</t>
   </si>
   <si>
     <t>complete123</t>
   </si>
   <si>
-    <t>NANDA PRATAMA</t>
-  </si>
-  <si>
-    <t>nandapratama</t>
-  </si>
-  <si>
-    <t>TANGERANGBANTEN</t>
-  </si>
-  <si>
-    <t>TANGERANGKABUPATEN</t>
+    <t>Wingky</t>
+  </si>
+  <si>
+    <t>wingky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	CV.MAJU</t>
+  </si>
+  <si>
+    <t>ZTE</t>
+  </si>
+  <si>
+    <t>BIGJOGJA</t>
+  </si>
+  <si>
+    <t>ZTEJGJ1</t>
   </si>
 </sst>
 </file>
@@ -436,7 +436,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -482,19 +482,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
@@ -503,10 +503,10 @@
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/public/import/user_template (1).xlsx
+++ b/public/import/user_template (1).xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28318"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apriansyahrs/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFD84BA-53DB-0441-A30C-4AE62F87EFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_20220AC7247A10273BDE1E1E4265DE72602C0ACF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A8F8BC9-F35C-4CA3-8C17-E4274CD1BDD8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
+  <calcPr calcId="191028" forceFullCalc="1"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>nama_lengkap</t>
   </si>
@@ -62,59 +60,86 @@
     <t>password</t>
   </si>
   <si>
-    <t>DSF/DM</t>
-  </si>
-  <si>
-    <t>ADI SUHADI</t>
+    <t>Dwi Ade Saptura</t>
+  </si>
+  <si>
+    <t>dwiadesaptura</t>
+  </si>
+  <si>
+    <t>ASC</t>
+  </si>
+  <si>
+    <t>CV.TOP</t>
+  </si>
+  <si>
+    <t>REALME</t>
+  </si>
+  <si>
+    <t>BIGPURWOKERTO</t>
+  </si>
+  <si>
+    <t>PWTTELE1</t>
+  </si>
+  <si>
+    <t>SUSILA SODIKIN</t>
   </si>
   <si>
     <t>complete123</t>
   </si>
   <si>
-    <t>Wingky</t>
-  </si>
-  <si>
-    <t>wingky</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	CV.MAJU</t>
-  </si>
-  <si>
-    <t>ZTE</t>
-  </si>
-  <si>
-    <t>BIGJOGJA</t>
-  </si>
-  <si>
-    <t>ZTEJGJ1</t>
+    <t>Hanhan Lukman Handiyani</t>
+  </si>
+  <si>
+    <t>hanhanlukmanhandiyani</t>
+  </si>
+  <si>
+    <t>BIGTASIK</t>
+  </si>
+  <si>
+    <t>TSKASC3</t>
+  </si>
+  <si>
+    <t>ANDIWIRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Helvetica Neue"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Source Sans Pro"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -122,13 +147,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,25 +471,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,38 +519,66 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="15.75">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="15.75">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>